--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/29_Elazığ_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/29_Elazığ_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36681828-B990-4E17-8761-3D3F05821E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B2B1EA-6266-41C3-B46E-915954553EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{0B29B699-CD6C-47FB-9F7D-34F731FA0C62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{00E10258-3CD0-491F-BCAC-CE17CF627610}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -957,13 +957,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{660094DB-B811-449F-997F-ED68A7FF65A0}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E6425BA0-2AC7-4D82-8242-9BEF0A5E8B35}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D34B41C5-EB4E-4266-97C8-1D003D24EC7F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3BC9BB0C-ABC1-4819-A409-BD0A7CF15C72}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{72074FE0-950B-44B8-92BF-12590121112A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{57F9E5CE-9902-4E73-AF45-CCB7C17B820A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{432A81C9-6C84-458C-9AD0-4E5FE74D9785}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C017A778-3C97-4F09-9220-454B429D9D0C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4B4C9803-DCF1-4299-A54D-2894F3E1F02F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{8CCA3224-0AEC-4CC5-8C7F-69AD328B6FBA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8AA5A85E-B2CC-466F-A373-D24010E0D687}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B73F2949-6E0B-41F5-BEFC-31CA8141BC3D}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{18D6E2C0-E035-4579-ACAA-2F781E1E0C1D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5775A257-7C2F-4F91-A47D-8743E4636821}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE2DA8A-C6F7-4FE6-9BA6-070CA7D86D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E80D7E-D139-4185-8E02-47C3D34DB8DD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2612,18 +2612,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF497E3D-BC3E-4512-81BF-382F26D95AC7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FF13E95-B9C3-40B5-A780-D072C72C72D4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC2FF61A-F754-4D16-86DC-E76F0C2CDD05}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D3980E2-CB09-4379-A80A-BBB6D8994D35}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{08ED97AB-911E-493A-A634-036CD3E12029}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B77B4283-6436-444E-9613-E0D42C888AC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D17769E7-610A-425D-A609-667FAF720B7D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24262D50-D9D9-4829-A112-A702A7F1880A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B4A359B-3A4E-4F70-BAD0-877BD2AADC71}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B5B6F252-06BC-4260-93BE-4D99539A89AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C2B7EEF-2F9C-4DA4-AE40-5E78A76483A9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D5DD0F1-9749-441C-B2B1-707069491544}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E970090B-ED2D-4594-958E-76D772C378D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C82434B0-DAA9-41B9-9A1A-AB37C5F5E02E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D2D42A42-F342-490A-B65C-8561DFAFB463}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB6A1040-829C-4649-858A-125B068617D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBDD223A-C6C6-4642-B714-DC1E492C5132}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A8C68367-46D6-4D14-8BAF-C0182468A705}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A66DC20-A1C0-4A62-B095-DAFBF6724E7F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1698DDE9-3DD8-45B8-9769-59C625C8C156}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53087233-38B8-4451-A970-5107035200E1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{341198FE-0964-44D1-8326-D21DA2713214}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F9C21B7-D9CE-4694-A878-DBFB4FC316B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BDBD1C5B-91E5-44AE-BC5F-F5AC63517378}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2636,7 +2636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C6CB99-4FF8-438C-8CB9-71B8596A0DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCEB1BA-E76C-421E-B40B-AF1BCF36696D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3886,18 +3886,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C4D3301-BA8B-4DAC-8E6F-30A52B9BD676}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28917893-E818-44BB-B6F7-93D71E41A2F7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F92416D7-0D8E-4FB6-9392-9D333B0E0797}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39D5C0AC-8A27-4A08-87A4-D65A4DDDB181}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E860096-5AA1-4383-9572-0542B53C4D3B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CE2F8002-AD88-4705-9EBD-E8BA0EE24E31}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38FC40D4-19FF-46E3-95D0-4305F0558D13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{681CA679-DB40-4F42-BA45-454AE25FB272}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D6725F6C-8046-4C5B-B3EB-C83C29E2B059}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9E362967-A0DC-49E4-AD4A-657142D378ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED54B47F-6012-46CB-A165-C742BBA3C3A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9361C2C4-4841-493E-8116-F54169303D95}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15795F92-58C8-4A79-B4C1-A19BF195A1CA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E363AD7-9D38-483D-94BE-66B084C5890F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D7FA8B31-BA00-4010-B8F3-C307AC4B56EC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{964CC16C-2561-4087-A7D2-EAD8659C5972}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38AE378D-487A-45A0-8D6B-84027636E37A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2388B203-375A-43CB-B7E2-7274B29B28DE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3291B48B-F9A4-45B5-AB89-EDB3D6047B6C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{102590B0-F413-4288-86A6-CAEEC9F74676}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC2A7B09-EAEC-43F9-BEC2-8DC6E137083E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{32CFF69F-9CC2-4CAE-8ABC-53764974128A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DFCAF065-B04C-4C35-8AE8-B6F9D1D0D6EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A62B163-3663-4B3D-9DA5-AB5CEC85959D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3910,7 +3910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF3BDCC-996F-45C7-9AF5-A3E78F4C761D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E939FA-45DF-4433-B39C-EA14984B373E}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5156,18 +5156,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26B84E47-8090-4B0D-8D69-A7A28603A41C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{194E4EEE-3672-4C1D-B3F8-AFB5C680AB4A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E59EAF2A-02B3-4B15-B66F-744C5FE6D59C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DDA4A8E7-159A-4419-9EE5-DE4EB49B05AE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4EC29829-3FFE-480B-AA34-2CC97E432B5B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{481770A3-D0A2-45A8-A7DA-5A5780D0E6A0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F9A5115-88D0-4C9E-B4CD-B3A418E2BA06}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1731A5EE-F86C-4D85-9757-769A279354D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DE24B64-363D-43E5-9AD0-127160001F78}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DB8A1054-D263-4BF3-A112-5502A619B6D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AE79BD5-E145-49B5-B2BC-98769235D47A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16A87E7E-2668-4C8A-B63C-2D4B12C14FEB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF44928B-BA58-44B3-A170-61A964E98A78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B1F8FE7-19AB-48A0-904B-5F43BA2D06F6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{13148A0F-62E4-42C8-8967-FDD2A958E01B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7DAAEC45-466A-4F6E-B980-4E4CE16DBCC6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B44876A7-3A65-4BB6-A7DE-176202699F78}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3B0FB10D-3D36-4B68-9D06-71188B457574}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E3274BF-22C1-4AC1-8C9D-A9018D908803}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B7986DD-0ED4-4BE0-B4BF-E8340DBB351C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{349F709A-26D3-46C6-8EC5-29A4159B52D4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9FD2E8D9-116A-48C4-A7C3-73B294B944B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DFDEC9A-1E27-4B30-96C6-C8162B17FB4B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F46A0DA2-7364-45C9-8780-7630489AC5BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5180,7 +5180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EA555D-025A-4138-B002-5578B64EDAE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E457EF94-62FD-4518-B486-2ACBFB07204F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6412,18 +6412,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1ECD182-FE3C-4C0A-BEBE-82CC50C0F6B0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8058FD2-FB1F-4CB9-B54C-81CD635323F9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{651CF048-1218-4A6D-9A39-83315DCE2D8B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B61424A4-4D21-4877-955B-BD2CBA891B1D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78E7B16E-BC66-4EC8-A178-C2A587C9505A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C28C610C-90CD-47AA-8DAC-7679BB4C261B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{526F2923-0372-4C58-A99C-AD391D8D6135}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A121BE3E-03E6-4C4F-9E47-E9D5E2307471}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A8980D9-2764-4D5F-AFAD-BB6F864791BF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F5080109-EA8C-4322-99AE-20770A7E3871}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B3B21F2-7674-432D-A46F-46D52ACABBFE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD707EF1-7B20-4F8C-BE35-25E6B0BA4741}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F83EEB6E-67CA-44C4-B945-96B057029399}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E682BB5-60D4-4AFD-8600-56437D88A367}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1F35143D-1666-4E7F-AD51-75F414ABA29E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9726B6F6-7764-4FAD-B770-341977EA50DD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8714DBA3-81BE-4E73-A5F0-70BF09DBFFF9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{38A2C724-5C40-4A64-AA1A-B204985054D4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2C6B22D-92CA-4259-97CE-2A1DE77595FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8D3B848-0BD1-4229-97E7-B4CC7B7D962E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3B65E73-E99F-4956-981F-7ECD488CFACF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E6814C2C-7782-46EB-9750-BACE452AF5AF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3459A2E7-FEA3-4416-88E5-545D54C089F1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{821D3051-61AF-4494-A73F-5CF95F7E66A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6436,7 +6436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CF7A1D-B25F-44B8-A233-295586DBDF26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7263503-A19F-4DFE-AE3A-25BCB336377D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7711,18 +7711,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35258A8A-F215-4546-91E8-584BB989D6B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7762274F-C6A8-4EE4-9125-812631A69F5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14A171B2-ADD5-4C8B-B95F-6279C7A426F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7ECBD301-C84D-443A-A8B0-B76EA8FA0183}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F22F4E6B-8D07-41D1-8B9B-86636356E36A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{821E7842-4255-48B6-A688-0E398DBC967D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26CDEDAA-27BA-4BBD-B95F-DCC07C3C2EF7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{371E7316-2761-4C3F-B3FE-848322C90C03}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6633AEE-597C-4C86-A6A5-3F89F4799B33}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EAD3EB07-D69C-41E5-88C1-6CBD8CCA1697}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70E2BD55-E2E5-42D0-A05A-E9F4A2A0EFCA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF92E9D0-ED57-43FE-8AFE-C01B5098CDE6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{889C6D17-1304-472D-A745-4E20B169C57E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C21739E-CA3B-4316-A33D-E1E14493ECDB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA61C309-5D5E-4E7E-BFC1-4DE86F0AE964}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E479854B-BC36-412F-AFAD-D4002ECAF3AC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F62A432-6FA6-4548-8888-B96286138807}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DACCF3F3-7D1F-4E2F-B281-9CBE6A5FB687}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E9DD0FB-EC9F-4F45-A8B7-1B5699B35068}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1EF296A-BA80-47DE-BDE2-56181C26CE50}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C160376B-C3EA-49B2-B510-BE37A691B2FD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CDCCE7C1-3743-4911-AC57-C6888E451838}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3543EFAE-BDC2-4FEC-84A9-34BE79F5ABA5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D001EF1E-D733-444D-B3F6-BA9D0C16C3C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7735,7 +7735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECA926F-E84E-4D75-A397-36AFC172B752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6970DA9D-8FE1-45C1-94CF-D94FDA8B7647}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9010,18 +9010,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{527DD8E7-B6B3-4DA1-8CD6-351AFE8031FC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{037AFFC9-9DF8-4F50-B198-FC780B677FFE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E67FB736-37A9-47E4-9D02-CDA19D9270C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{242129CF-96BA-4632-BB0D-EBA2EC1D742A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A09AE743-26F8-4956-9A21-60433F8ECA22}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A1A4ED59-FC77-47C6-8F48-2ECC1EB6F28B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE54C4F5-1B83-4538-8954-1EBD7CC54990}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB04B20C-591A-46A3-B215-5CAD4F49899A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C3A0ACA-B723-41A1-B1D9-D4EBBE206C12}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8023CC2B-984D-4370-A797-F680779C8A85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8E54364-5466-4E52-A9D6-FC6ABB46294E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5EDFD5C0-CFE9-4C70-89C1-9BAE45FE9014}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DF54F14-4A8A-4DA1-8157-0D39C6F283FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C28DD2B5-80C6-4775-A3E2-28494277EED0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F08CE22-3E51-4088-A61F-8B84088D8BC8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A1F03F0-DBB8-4FB1-A111-B659C8B5F6EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E541D54C-2B08-4C06-9928-C96600AB3F5A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EE5A3E07-1AFC-416E-AA00-9CC6E475C970}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC5443AC-8426-47A3-8589-8436D67783C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02EAADCA-9F4D-40C5-8411-746073171B4D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C302D32F-C3F2-46E5-B252-09B9698CF220}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E45DF950-FBE4-435C-A2C5-2EA81F4E4882}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F8A7894-6464-4B7A-8CF4-5DBE2F887C27}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A74F38BA-0340-4E23-8D75-5F6797E3DAC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9034,7 +9034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C09A3B6-2873-4598-8FB4-AB437C79C420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04CA7B4-6F16-4691-AA06-849C47C19843}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10309,18 +10309,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2D86FFB-7AC3-449E-B2BA-FD65993A3587}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A3358B1-BAB9-4BA2-825C-F15FF0E74BBD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67090DFE-E12E-4ECC-B8F9-BA8CA1C59577}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE2B1E8C-B87C-4966-94ED-8E9354085FFD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2724324C-7F5E-4CF7-96E2-51A395EECAFB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F53111F2-902D-4C55-930A-3CC776AE9D10}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{49ED0B60-EBBA-4F55-87E2-17BE9DEB4851}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79686831-205E-4CBB-81D9-24971C7BAA86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CC39538-D8E2-4E2C-AB1B-C5299F756AB0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B7287D69-A688-4D60-9BC9-7003786AE7DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A60A0B5-3DDD-4076-8281-7BDEA2276E90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9BF49E9D-5276-4EAD-8650-9BD30E0BE450}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03A5E443-7BD6-4549-BC4D-DC0464D0D985}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3257829F-6D29-4D01-9007-5E0E8CD8D1E0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0845F2A-35F0-43BE-942A-57A13FFE1E5C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51744296-5DF5-4D00-9990-3B92D238EC38}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48353566-1839-464F-A4B8-AA629AB0C0B4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F2103DEF-ED0B-47BD-8CCD-651A2EE9C1C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07ACA43E-9776-451A-B737-0AE6A30F7D1C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{796EB4AB-3D61-4F59-A328-1B2A2E5F8873}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A19DC693-14BB-4E4E-8E46-B91F38EDE623}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6F24F75D-63A9-4693-B88E-B8A55AC41223}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F719AC3A-B84D-4E3D-BB0C-C1A1E957B7EB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{614BF53F-5F91-4C1B-8C58-B7A05C51915A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10333,7 +10333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573FA60C-076C-40B2-9F08-CFDEB50CA8C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51162A10-F4B8-4B11-ABF6-B04BA85090F1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11608,18 +11608,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9C4DEF1-E9BA-4556-8A65-EF93B90AC2EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A69CBB0-8E24-4B7C-929D-402E84865357}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{44EDBAA8-8AC4-4438-A484-41A17994D016}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E15A55D7-15FA-4530-B011-883C7E199832}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E807B1F2-E910-40AF-980F-7FDCC6CA197F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E9A178B1-D32B-49AE-AEEA-8C91FE5C6BB3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{187DC52F-13E0-4BDE-9109-3CA2443040A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B20CB274-4024-460A-BE72-94B7E1D63932}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE4663C8-CFEC-4808-A428-9AB1DE5D8E53}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A2F10F5F-0F83-4471-BEB5-4B3CD0A1428F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{432020E9-FEEC-42B4-9E19-4FEA6D9B46C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7AE1484-AA5A-4B20-948D-BC292779465B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA5139D8-E97D-4BB7-97D1-BFA329A5786D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{816FFD41-2439-4A3B-B48A-8930AB75248F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{88A237D0-FB0A-48B5-828B-940B19B0C8FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5FABCAA-FF28-4397-A2FE-114AC3AB81E1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7E79902-0A67-400A-8BCE-734BA448D881}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C5442134-9D5A-4E6B-BB0C-AA5B16856C41}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{336DF1D1-7BB0-40F5-A5A2-D5A867C533C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2CF13589-73E9-4F00-BBF0-53CAC6988E80}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C7E714DC-5A5C-4C52-8117-A029B12AFE81}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{419C371B-D8B1-4966-9DD3-03368AA9809A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C24ACDDE-499A-4E52-A321-864759081F84}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D3FFDF6-F6BD-4148-91B9-4EC2357D6F7F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11632,7 +11632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C356C5E7-EBC4-46AB-9EE4-B512C609C542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D42F59-776B-4E04-9087-2CAD89DCE112}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12900,18 +12900,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04A09658-4FD9-40EC-B90C-CB6E26618298}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB698283-3DA6-4A0D-8D02-635347E3FD2C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C62F9364-1D5C-4776-B51D-8266E7CCA10D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0207DC10-F386-4F5F-AA2B-2BEC3CF7578B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F9DAA3A-2DE1-4983-AB19-149C7B950E14}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D4E3B8A-E5CB-425F-A208-DEB347DC2444}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59E56F73-4AC9-4B06-B3E2-79CD850D9BE5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58C76E85-0D12-4A0C-A83A-EF86467FB755}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4F4C8678-0E7F-46DF-BFF5-3C4C7CC77A99}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ABE46B3B-F623-456F-8C7C-8B2B5EDA45A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10E5FD59-91D9-49D0-9378-2320AC448C4E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19716583-C63C-452C-A82D-D287ACF5A3A1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72FF9823-4FA1-40A4-8FAA-C74635DA4101}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C477ED21-B454-4DD3-A296-9826FAC1CCF5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9DE62ED0-7A6A-45DB-8471-DFBDBF1C7CEA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4438C435-DA79-44CE-BE6A-27B53C100585}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4318AF29-BB3E-4579-9C7B-E892D082F812}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{166AFE04-DFF2-4C8F-A4C6-8FE097F5AB0B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2178541-1A86-447B-B24E-474CD9D24615}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09F2EB84-E8AD-453F-9A8F-DCF5D6A28656}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1453FFCA-ECEC-4CFB-B411-A40DFB40037B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D32E3F2C-8016-4F72-9688-A749E4AB6D26}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C74868D7-C23F-4B49-986B-F87D1C1D7352}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7122B37E-0FFB-4FA8-B29F-57567314DB09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12924,7 +12924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810E7A1F-40E5-4C84-8D8A-288E9657EB8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B87D47-478F-4A49-AA0F-2A81EA625D73}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14174,18 +14174,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{397DC14A-19E5-4514-896F-956C65046689}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AAA3522-B5AA-4E68-B03A-FA2E4B7EE536}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A4AD503-ECB7-4485-A163-47FDAD87AC9E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9010017F-ECB4-4E9C-962C-7C1567CAB9DA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1293AB63-D6CC-4ECC-A672-E3133A8D3ADE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC0A0EBE-55D9-4C91-B63A-2800EF2A532B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E97A31B-A8A6-48F6-8FAB-61E32545E264}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7B8C21C-30B7-46E0-AC0A-A69079B9358B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF5EB9F0-0EBC-4380-AA5E-9C4F6C1800E2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A1F24F24-BA10-400A-917A-1C0846A0A7D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B0E00CF-5E79-4B1A-8C24-B29EA752A5AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{11A40CF7-00B5-4A5C-B51D-2A1B8471A213}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D3C8735-9699-485D-B226-A5E7D0210285}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89FD5FC0-A611-4115-996E-D8488499F5F2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F1D6003-FA05-4E99-9C5A-FEA75FC4A79D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{59D6947C-A215-4E49-95CD-26FBDF91E764}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3C64288-E597-483F-BA2F-D2D4F47027FE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9BBE99AB-A9A8-424B-9550-1B5F5396895A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{790EE5DE-AB96-48E5-84AC-147343E17449}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B9BC467-BFDE-4368-A8A1-E416A8D7C8AA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D76EA159-3989-4E87-AC4C-1E695BE6B6BB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2D19C6A6-5EC6-47B0-8885-70314E026A5F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44F86B5D-B589-48E0-B88E-804638B0D8C1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D4C74FC-ADAE-4B18-877B-FBB10CCB9E32}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14198,7 +14198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C56609-46B2-411D-BD09-BFA83853E609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E543F6-3FBA-46F7-807F-A59B7870A965}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15448,18 +15448,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADDD646F-DFCF-4674-82A3-5658883113C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2163BE5-3342-48F2-915A-9A12221FAF19}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2534F1BA-CDCA-4C2F-A852-CF55D198A78A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB590103-A91E-437B-AE7F-D5E4BD41EB37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC0605A7-FA2C-45F7-9839-4D6FC0CB2356}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E503D79F-122A-4D43-B4DF-98B70827E651}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F8BFC19-7E20-4398-870F-B0CDD3EDD1B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71223D95-B186-4E67-8B7E-7A126D7694C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64C65C5D-1670-4946-890D-482EB5BFBFB1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EAA04857-524D-43B2-8569-ECEBB6D60552}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AAA3AF8-A678-4911-ABFC-8D90CD19653B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C7FE709-B28D-423C-A129-57CEA52FAB68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FBFEB6C-B42D-43ED-A749-70A2140736B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82ADA152-C1CB-4075-8D19-8CF56FC237FB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E4F0AA91-012F-4E51-B064-2825BBD70474}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6019C7B3-9BDF-4621-837E-8896771B9480}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA3C2C63-CE67-4DE7-8AC5-89E46DFD8DB1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3BF21533-8891-418D-89D9-797EB8039119}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C71669DC-EEDC-4C80-A61E-4F443872F8D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81B7C0BD-EB97-438A-B0ED-60DE1EDEFFB2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C406F1F2-F299-4F1E-81F8-3E84B8353491}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{11847FB2-93B4-4F7C-8807-47298703D882}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6817FED-CF40-41D0-9A93-6AD6771DE841}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76955382-52CA-4016-B359-843DB6CE780F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15472,7 +15472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212E0586-9874-4C69-BC50-5BD4FBCB8806}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AAA7D3-888F-4A2D-8A0E-E6FBBBF3FFC4}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16722,18 +16722,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{45B4D388-2E8A-4277-9DEC-EC86DE5D9BA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B08D08D3-94B9-46CC-88D5-046DFFF979A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0558F697-4B71-43AB-B3C0-8ED2399822C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8096A11F-3B7F-4516-8103-F006DEC403A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98BAB5BE-5E6A-45F6-B356-1A321A2177A0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{364CB741-8DD2-496D-B955-953F4817789C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{402354A6-9089-4255-8FA7-48B81AF41C5D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CC63A96-6E79-4696-970A-26CD609FDDD5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C66556BE-ACCB-4EEE-AE96-525215F6B722}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FF922937-CE86-4ADB-A80C-030853C9D335}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFF22997-BF93-4317-94AA-7C3766E69B58}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E41F5AEE-FFD2-44C9-A4DB-E96AA98B917D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AEA66D7-3E4C-46A8-9264-F22D855F6FEF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D86F3CBF-EFE5-40F9-8033-717DE5C8BD01}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{30163E97-33B3-43A7-A71F-F5CE4360F952}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3131DE93-80FF-4A79-ACCA-C2C13D25F4CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33026E92-2256-463E-9F76-7B471C919B92}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C843CC8F-9F49-4BAA-8432-8F882AE24816}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F60E2BB6-4244-4879-A845-443B0368E785}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C27F5CA-07BB-4731-80EA-5A66923BF268}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78FE2806-0EAE-4AFC-9D8E-D2219042A890}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2DEFCB2F-5551-428F-A1AD-5B3060EA650B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3AA35750-7808-48B9-8A32-79E8B8D3ADC7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77C1DF75-39F3-4738-BD27-BD8B6D07D4C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
